--- a/run_1/SVM/SVM_GLM/Tables/SVM_performance_metrics_per_fold.xlsx
+++ b/run_1/SVM/SVM_GLM/Tables/SVM_performance_metrics_per_fold.xlsx
@@ -452,57 +452,57 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>94.46111280702017</v>
+        <v>102.1928919321432</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1854004626736081</v>
+        <v>0.1302852986657663</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112.1983585750651</v>
+        <v>125.1557687919098</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03244067036614229</v>
+        <v>-0.06514073549644994</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>113.5978504191905</v>
+        <v>96.93063574909577</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02037194308949453</v>
+        <v>0.1750698377668048</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>110.9090008579712</v>
+        <v>108.2889579438499</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04355963952267372</v>
+        <v>0.1036522059779796</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>110.4930501924724</v>
+        <v>106.6518651426058</v>
       </c>
       <c r="B6" t="n">
-        <v>0.047146652311292</v>
+        <v>0.1172030291539252</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
